--- a/data/income_statement/2digits/size/79_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/79_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>79-Travel agency, tour operator and other reservation service and related activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>79-Travel agency, tour operator and other reservation service and related activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,263 +841,298 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4123364.38707</v>
+        <v>4042116.98365</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>5321139.28367</v>
+        <v>5218084.17412</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7227886.22351</v>
+        <v>7144310.05677</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7366427.23587</v>
+        <v>7217957.95008</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8705082.529520001</v>
+        <v>8559234.41478</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12455683.75504</v>
+        <v>12352687.21103</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>12184875.28114</v>
+        <v>13110350.67716</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10913042.79738</v>
+        <v>10715187.78466</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>20468485.33444</v>
+        <v>20110404.34182</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>27048978.20761</v>
+        <v>26948738.13311</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>38417396.02586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>38294798.70649</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12345548.638</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1508714.62684</v>
+        <v>1439574.17736</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1999113.06042</v>
+        <v>1925630.89431</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3050365.77555</v>
+        <v>2992886.80245</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3751038.97948</v>
+        <v>3665255.26946</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4949418.62565</v>
+        <v>4824731.940990001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6986895.135480001</v>
+        <v>6895756.79748</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8091133.429059999</v>
+        <v>8506499.2797</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7040988.32279</v>
+        <v>6869342.72516</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>12980416.52158</v>
+        <v>12682622.46915</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>16566082.32321</v>
+        <v>16475968.32604</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>21001029.05717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>20882210.78056</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8354734.588</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2508705.60415</v>
+        <v>2498888.43654</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>3210807.80078</v>
+        <v>3183233.22623</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4068404.717</v>
+        <v>4058570.98327</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3515313.81611</v>
+        <v>3460315.72909</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3654734.77386</v>
+        <v>3642441.36402</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5311768.45078</v>
+        <v>5308915.39631</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3886884.64067</v>
+        <v>4408805.10525</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3629605.85785</v>
+        <v>3609348.69114</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>7181094.23365</v>
+        <v>7147457.260430001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>10056441.87832</v>
+        <v>10056419.42225</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>17097018.59346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>17095319.51629</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3883150.117</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>105944.15608</v>
+        <v>103654.36975</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>111218.42247</v>
+        <v>109220.05358</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>109115.73096</v>
+        <v>92852.27105</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>100074.44028</v>
+        <v>92386.95153000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>100929.13001</v>
+        <v>92061.10977</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>157020.16878</v>
+        <v>148015.01724</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>206857.21141</v>
+        <v>195046.29221</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>242448.61674</v>
+        <v>236496.36836</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>306974.57921</v>
+        <v>280324.61224</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>426454.00608</v>
+        <v>416350.38482</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>319348.37523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>317268.40964</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>107663.933</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>39301.45295000001</v>
+        <v>37640.69101</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>52167.59386</v>
+        <v>51603.99124</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>92075.98672</v>
+        <v>91619.11528</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>101541.43939</v>
+        <v>100809.83164</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>94874.75146000001</v>
+        <v>92582.53887999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>102134.3071</v>
+        <v>102035.70291</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>182104.54973</v>
+        <v>187018.91839</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>301782.77733</v>
+        <v>295152.13156</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>359673.00994</v>
+        <v>347392.81038</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>314024.2104299999</v>
+        <v>301915.37014</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>440477.71069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>437212.64454</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>561654.328</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>33890.49256</v>
+        <v>32259.01273</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>38631.62965</v>
+        <v>38080.46975</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>74818.2368</v>
+        <v>74361.39603999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>82137.98106000001</v>
+        <v>81556.80331</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>91012.47017</v>
+        <v>88825.55043</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>94144.89297</v>
+        <v>94046.28878</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>151946.05759</v>
+        <v>156860.42625</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>261093.39192</v>
+        <v>258067.25766</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>326711.52231</v>
+        <v>316753.2694099999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>238694.74739</v>
+        <v>226585.9071</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>399538.41979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>396273.35364</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>537671.656</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5131.22461</v>
+        <v>5101.9425</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>13382.1629</v>
+        <v>13369.72018</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>14235.46204</v>
+        <v>14235.43136</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>16121.27903</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1226.26426</v>
+        <v>1121.83273</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>6380.30032</v>
@@ -1205,22 +1141,27 @@
         <v>27931.75731</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>35228.21978</v>
+        <v>35127.80827</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>29479.5768</v>
+        <v>29222.23014</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>75329.46304</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>40724.67113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>40939.2909</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>23976.07</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>279.73578</v>
@@ -1232,10 +1173,10 @@
         <v>3022.28788</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3282.1793</v>
+        <v>3131.7493</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2636.01703</v>
+        <v>2635.15572</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>1609.11381</v>
@@ -1244,112 +1185,127 @@
         <v>2226.73483</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5461.16563</v>
+        <v>1957.06563</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3481.91083</v>
+        <v>1417.31083</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>214.61977</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6.602</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4084062.93412</v>
+        <v>4004476.29264</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5268971.68981</v>
+        <v>5166480.18288</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7135810.23679</v>
+        <v>7052690.94149</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7264885.796480001</v>
+        <v>7117148.11844</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8610207.77806</v>
+        <v>8466651.8759</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>12353549.44794</v>
+        <v>12250651.50812</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12002770.73141</v>
+        <v>12923331.75877</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10611260.02005</v>
+        <v>10420035.6531</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>20108812.3245</v>
+        <v>19763011.53144</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>26734953.99718</v>
+        <v>26646822.76297</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>37976918.31517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>37857586.06195</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>11783894.31</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3840218.7289</v>
+        <v>3790028.39088</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4929627.295240001</v>
+        <v>4860689.864770001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6576671.913579999</v>
+        <v>6542616.571529999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6698402.68732</v>
+        <v>6593710.329059999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7990419.104150001</v>
+        <v>7892600.606179999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>11518498.78216</v>
+        <v>11438652.08179</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>11110993.4926</v>
+        <v>12021354.63522</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>9698789.94321</v>
+        <v>9566381.967890002</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>18631071.06639</v>
+        <v>18419188.69024</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>24930788.37635</v>
+        <v>24857337.83564</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>35820286.3132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>35708355.52868</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11222846.03</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>857.76336</v>
+        <v>175.0994</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>147689.69421</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>456.34128</v>
+        <v>397.36636</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>2888.7524</v>
@@ -1372,89 +1328,104 @@
       <c r="M15" s="48" t="n">
         <v>8374.95002</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>9235.885</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>48816.13836</v>
+        <v>24607.52345</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>31329.93961</v>
+        <v>22876.47622</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>102528.3614</v>
+        <v>101531.53095</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>120762.61316</v>
+        <v>104370.82059</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>101908.75787</v>
+        <v>99233.11586000002</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>387392.22976</v>
+        <v>358750.68681</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>695467.87712</v>
+        <v>694322.31175</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>651839.91949</v>
+        <v>620288.5501100001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>817228.69354</v>
+        <v>779755.28649</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1957521.03599</v>
+        <v>1942905.35099</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1102655.84566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1089956.437</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>26636.553</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3791402.59054</v>
+        <v>3765420.86743</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4897439.59227</v>
+        <v>4837638.28915</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>6326441.68507</v>
+        <v>6293383.173469999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6577183.73288</v>
+        <v>6488942.142109999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>7885534.99833</v>
+        <v>7790392.14237</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>11119344.08172</v>
+        <v>11068138.9243</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>10414194.33809</v>
+        <v>11325701.04608</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>9042851.839600001</v>
+        <v>8941999.2894</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>17068997.11278</v>
+        <v>16894894.01859</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>22969269.31599</v>
+        <v>22910434.46028</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>34496952.79031</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>34397721.41445</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11184907.845</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1478,10 +1449,10 @@
         <v>1331.27739</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4098.18412</v>
+        <v>4094.12838</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4226.21337</v>
+        <v>3920.33846</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>210.75778</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>212302.72721</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>2065.747</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>243844.20522</v>
+        <v>214447.90176</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>339344.39457</v>
+        <v>305790.31811</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>559138.3232100001</v>
+        <v>510074.36996</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>566483.10916</v>
+        <v>523437.78938</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>619788.6739100001</v>
+        <v>574051.26972</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>835050.66578</v>
+        <v>811999.42633</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>891777.2388099999</v>
+        <v>901977.1235499999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>912470.0768399999</v>
+        <v>853653.68521</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1477741.25811</v>
+        <v>1343822.8412</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1804165.62083</v>
+        <v>1789484.92733</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2156632.00197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2149230.53327</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>561048.28</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>222807.63829</v>
+        <v>198560.67972</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>274983.55146</v>
+        <v>240973.51432</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>353949.32709</v>
+        <v>319145.96773</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>421255.69392</v>
+        <v>376859.39058</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>416683.06116</v>
+        <v>375640.91179</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>586054.3773900002</v>
+        <v>554506.16871</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>652888.12637</v>
+        <v>642649.30238</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>891639.9085499999</v>
+        <v>754854.80863</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1210281.52478</v>
+        <v>993604.92499</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1242325.96273</v>
+        <v>1130206.84278</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1547726.60611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1487429.44785</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>760368.246</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,206 +1592,236 @@
       <c r="M21" s="48" t="n">
         <v>6395.52141</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>9253.084999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>40904.74507</v>
+        <v>40271.4805</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>52643.07711</v>
+        <v>48466.49245</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>74510.89564</v>
+        <v>74436.11207</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>111571.32628</v>
+        <v>111193.2908</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>115250.50891</v>
+        <v>112774.73115</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>203287.44961</v>
+        <v>202531.50493</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>219227.16994</v>
+        <v>229452.26376</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>346723.79882</v>
+        <v>293268.35558</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>468423.43731</v>
+        <v>400685.95559</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>481457.46502</v>
+        <v>479187.1036</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>657243.9169500001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>654574.03483</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>197520.309</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>181902.89322</v>
+        <v>158289.19922</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>222340.47435</v>
+        <v>192507.02187</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>279438.43145</v>
+        <v>244709.85566</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>309684.36764</v>
+        <v>265666.09978</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>301238.11404</v>
+        <v>262671.74243</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>382663.51068</v>
+        <v>351871.24668</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>433660.95643</v>
+        <v>413197.03862</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>544916.10973</v>
+        <v>461586.45305</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>741858.08747</v>
+        <v>592918.9693999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>756815.74199</v>
+        <v>646966.98346</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>884087.16775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>826459.89161</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>553594.852</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>21036.56693</v>
+        <v>15887.22204</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>64360.84311</v>
+        <v>64816.80379</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>205188.99612</v>
+        <v>190928.40223</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>145227.41524</v>
+        <v>146578.3988</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>203105.61275</v>
+        <v>198410.35793</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>248996.28839</v>
+        <v>257493.25762</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>238889.11244</v>
+        <v>259327.82117</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>20830.16829000001</v>
+        <v>98798.87658</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>267459.73333</v>
+        <v>350217.91621</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>561839.6580999999</v>
+        <v>659278.0845499999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>608905.39586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>661801.0854199999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-199319.966</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>491609.9744600001</v>
+        <v>380495.5659700001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>946558.6497599999</v>
+        <v>523793.4795900001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>921393.95961</v>
+        <v>792591.03739</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>678104.18747</v>
+        <v>398795.68142</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>821222.17433</v>
+        <v>654126.7207800001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1193708.70973</v>
+        <v>1064406.54199</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2278491.32672</v>
+        <v>2112695.54926</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1738497.96063</v>
+        <v>1558217.56647</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3069020.75907</v>
+        <v>2905763.53993</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>12128395.24652</v>
+        <v>12053302.27908</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7911008.05418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5730985.72287</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8975139.054</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>14063.18108</v>
+        <v>0.93455</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>102667.53156</v>
+        <v>2.5826</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>54271.06184</v>
+        <v>1230.61175</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>53250.32365</v>
+        <v>2092.56887</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>12733.9051</v>
+        <v>881.1355600000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>8308.00592</v>
+        <v>1998.88192</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>9544.242199999999</v>
+        <v>2455.72138</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>21719.1642</v>
+        <v>1432.57842</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>15483.74376</v>
+        <v>1374.25089</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>5145.14411</v>
+        <v>1870.79831</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>17837.14474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>14198.98274</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2295.608</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>141.65864</v>
@@ -1814,79 +1830,89 @@
         <v>2983.24963</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>777.8342700000001</v>
+        <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>5644.534009999999</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>1431.20137</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>7416.74495</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>8842.918720000001</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>21361.44479</v>
+        <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>36492.88928</v>
+        <v>31331.00472</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1790900.1902</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>476.454</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>40957.27515</v>
+        <v>26780.34145</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>22901.16694</v>
+        <v>20101.16111</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>37517.76609</v>
+        <v>28234.30094</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>52429.66393</v>
+        <v>37016.97897</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>61424.08607</v>
+        <v>38954.94601</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>46919.66886</v>
+        <v>35700.81573</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>58076.23637000001</v>
+        <v>53166.46931999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>78904.48774</v>
+        <v>70025.1056</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>126466.74888</v>
+        <v>104652.99595</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>179141.43541</v>
+        <v>173877.19512</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>218417.91602</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>209357.09235</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>170693.506</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>6211.50863</v>
+        <v>5646.74267</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>2710.39455</v>
@@ -1895,22 +1921,22 @@
         <v>7243.45308</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>7403.630480000001</v>
+        <v>7252.95672</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>4097.31184</v>
+        <v>4071.43812</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7686.66378</v>
+        <v>7686.53276</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>14304.89019</v>
+        <v>14329.56974</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>10436.38711</v>
+        <v>10431.88771</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>8860.949839999999</v>
+        <v>8858.62083</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>8436.28967</v>
@@ -1918,26 +1944,31 @@
       <c r="M29" s="48" t="n">
         <v>50991.22173</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>10821.054</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5294.7064</v>
+        <v>5275.65993</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>181.58111</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>163.03531</v>
+        <v>155.48321</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>909.09977</v>
+        <v>897.8661999999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>776.00447</v>
+        <v>776.00446</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>1292.63773</v>
@@ -1949,109 +1980,124 @@
         <v>3434.97095</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>14374.74252</v>
+        <v>14169.54335</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>163.26074</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>29701.43132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>349.43132</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4021.128</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>283.97972</v>
+        <v>71.8814</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>988.81386</v>
+        <v>988.2146</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>13117.70719</v>
+        <v>6685.190759999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>869.43155</v>
+        <v>698.26413</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>17498.85834</v>
+        <v>1357.55882</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>36709.47071</v>
+        <v>27686.20019</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>61316.34952</v>
+        <v>21576.9281</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>15623.71154</v>
+        <v>8947.636689999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>6437.57091</v>
+        <v>5906.1255</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3217.43255</v>
+        <v>3209.56885</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>11485.88383</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>641.0549999999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>342035.13546</v>
+        <v>305961.6964</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>514378.94155</v>
+        <v>471056.50041</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>757602.61347</v>
+        <v>713107.57964</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>397084.49966</v>
+        <v>325780.9902</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>684351.80667</v>
+        <v>572396.24694</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1022459.91121</v>
+        <v>946614.30765</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2060648.56591</v>
+        <v>1980581.20143</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1520849.84021</v>
+        <v>1410493.21289</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2645091.96169</v>
+        <v>2531021.03366</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>11588673.32639</v>
+        <v>11531823.01051</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5512814.55855</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>5186973.6959</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8739409.155999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>103.11534</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0.9176</v>
+        <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>837.21603</v>
+        <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2102,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>4476.72999</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>0</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>82519.41403999999</v>
+        <v>36616.65093</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>299746.0529600001</v>
+        <v>25769.79558</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>50700.48836</v>
+        <v>35934.41801</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>159675.78839</v>
+        <v>25056.05633</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>38909.00047</v>
+        <v>34258.1895</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>62915.60657</v>
+        <v>43427.16601</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>64038.97394</v>
+        <v>38866.50942</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>61691.2241</v>
+        <v>53452.17420999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>252305.04147</v>
+        <v>239780.96975</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>307125.46837</v>
+        <v>302591.15116</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>278859.70779</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>257629.415</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>46781.093</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>371040.9708900001</v>
+        <v>326670.97801</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>500048.60097</v>
+        <v>469708.39238</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1182332.67602</v>
+        <v>915397.04389</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>383089.28887</v>
+        <v>331800.93703</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>782520.6986300001</v>
+        <v>643405.49001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1132364.65311</v>
+        <v>1053684.23447</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2116706.78296</v>
+        <v>2021191.08434</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1679960.04355</v>
+        <v>1560193.82726</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2925784.21829</v>
+        <v>2779201.69846</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>12303079.57092</v>
+        <v>12189922.38985</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6244168.130220001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5747542.38074</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>9312016.915999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>11421.29958</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>7731.680230000001</v>
+        <v>7731.53037</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>11664.37992</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>10208.83955</v>
+        <v>10138.91585</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>9038.48309</v>
+        <v>8997.59924</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>16026.97275</v>
+        <v>15728.83155</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>32520.10514</v>
+        <v>32466.94338</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>19638.69938</v>
+        <v>19560.37914</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>14833.39774</v>
+        <v>14758.41987</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>17041.85438</v>
@@ -2230,20 +2296,25 @@
       <c r="M37" s="48" t="n">
         <v>27771.32745</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>3904.688</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6251.92828</v>
+        <v>6104.198280000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3621.93898</v>
+        <v>3574.69298</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>23125.38722</v>
+        <v>23005.35071</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>420.12725</v>
@@ -2252,31 +2323,36 @@
         <v>10969.02167</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>83273.31948000001</v>
+        <v>83048.39448</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>27661.4888</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>16310.49123</v>
+        <v>14219.28339</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>10235.72535</v>
+        <v>5518.93592</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>3170.40616</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>48470.15576000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>44460.27813000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>80149.952</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1220.73901</v>
+        <v>70.35901</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>526.96524</v>
@@ -2288,10 +2364,10 @@
         <v>553.82877</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>19929.52947</v>
+        <v>1382.178</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>31887.38537</v>
+        <v>26422.3581</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>21526.92563</v>
@@ -2300,70 +2376,80 @@
         <v>3.94481</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>17791.6082</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>39.975</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>83.702</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>322225.01345</v>
+        <v>287394.32961</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>479653.74217</v>
+        <v>449790.50606</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>950762.30324</v>
+        <v>876352.3112699999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>364584.25132</v>
+        <v>317929.24723</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>735184.18804</v>
+        <v>620632.16576</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>995843.5125399999</v>
+        <v>926264.45577</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2030354.64378</v>
+        <v>1937305.14641</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1613644.78286</v>
+        <v>1496188.36443</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2701360.47753</v>
+        <v>2577493.42442</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>12057888.32338</v>
+        <v>11945557.02755</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5794751.528570001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5395864.93389</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>9216388.627</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>104.03294</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>847.85739</v>
+        <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>193.78104</v>
+        <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,365 +2516,415 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>29817.95763</v>
+        <v>21680.79153</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>8514.274350000002</v>
+        <v>8084.69773</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>194906.845</v>
+        <v>3349.09874</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>7128.460940000001</v>
+        <v>2758.81793</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>7399.47636</v>
+        <v>1424.52534</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5333.46297</v>
+        <v>2220.19457</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4643.619610000001</v>
+        <v>2230.58012</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>30362.12527</v>
+        <v>30221.85549</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>181563.00947</v>
+        <v>181430.91825</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>224938.87216</v>
+        <v>224152.96192</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>373175.11844</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>279445.84127</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>11489.947</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>89554.64732999999</v>
+        <v>48600.38796</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>94297.07770000001</v>
+        <v>54862.38898</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>186977.78691</v>
+        <v>69910.85574</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>117296.66273</v>
+        <v>76783.63845</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>146910.03258</v>
+        <v>82319.12536000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>126215.76575</v>
+        <v>83818.57738000002</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>155927.02051</v>
+        <v>107272.00176</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>232821.54061</v>
+        <v>164623.4</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>370708.02321</v>
+        <v>285448.35057</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>408005.79349</v>
+        <v>354847.2583</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>620039.2525299999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>474129.04872</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>374421.532</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>68513.12945000001</v>
+        <v>46748.85811</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>61891.58035</v>
+        <v>54721.02144</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>87893.3875</v>
+        <v>69082.4883</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>93272.04515999999</v>
+        <v>76292.34564</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>104593.77729</v>
+        <v>80240.79562999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>99228.91015000001</v>
+        <v>83818.57738000002</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>119335.15071</v>
+        <v>107272.00176</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>187316.1158</v>
+        <v>164240.60453</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>327606.69452</v>
+        <v>284509.73992</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>392749.25831</v>
+        <v>342466.97215</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>581401.0727200001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>440314.09698</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>374421.532</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>21041.51788</v>
+        <v>1851.52985</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>32405.49735</v>
+        <v>141.36754</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>99084.39941</v>
+        <v>828.36744</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>24024.61757</v>
+        <v>491.29281</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>42316.25529</v>
+        <v>2078.32973</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>26986.8556</v>
+        <v>0</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>36591.8698</v>
+        <v>0</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>45505.42481</v>
+        <v>382.79547</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>43101.32869</v>
+        <v>938.6106500000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>15256.53518</v>
+        <v>12380.28615</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>38638.17981</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>33814.95174</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>52050.92317</v>
+        <v>21111.42204</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>416573.8142</v>
+        <v>64039.50201999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-242727.5072</v>
+        <v>-1788.460010000002</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>322945.65111</v>
+        <v>136789.50474</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>94897.05587000001</v>
+        <v>126812.46334</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>184124.57926</v>
+        <v>184396.98776</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>244746.63569</v>
+        <v>243560.28433</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-153453.45524</v>
+        <v>-67800.78421000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>39988.25089999999</v>
+        <v>191331.40711</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-20850.45979</v>
+        <v>167810.71548</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1655706.06729</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>171115.37883</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-910619.36</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>13337.4074</v>
+        <v>7871.677570000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>40130.43008999999</v>
+        <v>19447.4307</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>242894.05106</v>
+        <v>68475.75725</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>31318.28453</v>
+        <v>22744.53288</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>23893.13161</v>
+        <v>19053.33616</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>55501.75416999999</v>
+        <v>40072.68951999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>51184.51488999999</v>
+        <v>46430.9163</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>155208.99469</v>
+        <v>123101.17677</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>164075.13801</v>
+        <v>150410.56223</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>188366.88122</v>
+        <v>179442.01884</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>329578.46579</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>205270.2381</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>96767.989</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>320.79229</v>
+        <v>55.42906</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>96.58887</v>
+        <v>92.36396999999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>746.80929</v>
+        <v>464.03627</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>832.7487</v>
+        <v>734.8856800000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2497.78214</v>
+        <v>2480.24479</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>1258.52016</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3898.39545</v>
+        <v>3891.84145</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1143.78398</v>
+        <v>1034.40283</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1815.70678</v>
+        <v>1810.61188</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>252.44533</v>
+        <v>252.12856</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3070.58103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3070.1604</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>79.07599999999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>13016.61511</v>
+        <v>7816.248509999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>40033.84122</v>
+        <v>19355.06673</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>242147.24177</v>
+        <v>68011.72098</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>30485.53583</v>
+        <v>22009.6472</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>21395.34947</v>
+        <v>16573.09137</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>54243.23401</v>
+        <v>38814.16936</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>47286.11943999999</v>
+        <v>42539.07485</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>154065.21071</v>
+        <v>122066.77394</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>162259.43123</v>
+        <v>148599.95035</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>188114.43589</v>
+        <v>179189.89028</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>326507.88476</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>202200.0777</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>96688.913</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>57812.97629</v>
+        <v>23677.46413</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>44284.26104999999</v>
+        <v>31688.24859</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>62835.08454</v>
+        <v>31874.09201</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>36037.66953</v>
+        <v>23767.75864</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>65091.71186</v>
+        <v>24081.80917</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>88881.22485</v>
+        <v>76727.62394000002</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>20366.8218</v>
+        <v>19622.25294</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>45078.20406</v>
+        <v>32953.03262</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>172861.17973</v>
+        <v>127051.75917</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>89209.75544999998</v>
+        <v>86075.62333</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>212012.79786</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>153367.36039</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>99766.16899999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>43.02254</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>0</v>
@@ -2795,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4177.6632</v>
+        <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>170.089</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4134.44735</v>
+        <v>2671.98228</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>12468.29546</v>
+        <v>12397.7492</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2275.55193</v>
+        <v>2263.30353</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3142.76586</v>
+        <v>2333.42576</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3338.41295</v>
+        <v>3255.29078</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1851.66605</v>
+        <v>1758.35439</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3438.73018</v>
+        <v>4513.534030000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5907.972100000001</v>
+        <v>4310.32739</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5423.05068</v>
+        <v>5206.2429</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>912.0481</v>
+        <v>902.87017</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5693.35612</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5655.03133</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9842.843999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>53635.5064</v>
+        <v>21005.48185</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>31815.96559</v>
+        <v>19290.49939</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>60526.28811</v>
+        <v>29577.54398</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>32894.90367</v>
+        <v>21434.33288</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>57575.63571</v>
+        <v>20826.51839</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>87029.5588</v>
+        <v>74969.26955</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>16928.09162</v>
+        <v>15108.71891</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>39166.31213000001</v>
+        <v>28638.7854</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>167438.12905</v>
+        <v>121845.51627</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>88297.70735</v>
+        <v>85172.75315999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>206319.44174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>147712.32906</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>89753.236</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>7575.35428</v>
+        <v>5305.635480000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>412419.98324</v>
+        <v>51798.68412999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-62668.54068</v>
+        <v>34813.20523000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>318226.26611</v>
+        <v>135766.27898</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>53698.47562</v>
+        <v>121783.99033</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>150745.10858</v>
+        <v>147742.05334</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>275564.32878</v>
+        <v>270368.94769</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-43322.66461</v>
+        <v>22347.35994</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>31202.20917999999</v>
+        <v>214690.21017</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>78306.66597999999</v>
+        <v>261177.11099</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1773271.73522</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>223018.25654</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-913617.54</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>5770.53791</v>
+        <v>5301.99806</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>19930.66895</v>
+        <v>14562.12467</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>32660.92747</v>
+        <v>30480.53802</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>33929.68034</v>
+        <v>31178.36465</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>36925.54431</v>
+        <v>34983.63748</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>53723.30278</v>
+        <v>53479.67408</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>56140.0148</v>
+        <v>57275.91585</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>49723.77331</v>
+        <v>44008.74643000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>55198.89075999999</v>
+        <v>50519.67593</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>91892.48518</v>
+        <v>91250.11848</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>93352.61620999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>90318.44567</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>45990.229</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1804.81637</v>
+        <v>3.63742</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>392489.31429</v>
+        <v>37236.55946</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-95329.46815</v>
+        <v>4332.667210000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>284296.58577</v>
+        <v>104587.91433</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>16772.93131</v>
+        <v>86800.35285000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>97021.8058</v>
+        <v>94262.37926</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>219424.31398</v>
+        <v>213093.03184</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-93046.43791999998</v>
+        <v>-21661.38649</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-23996.68158</v>
+        <v>164170.53424</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-13585.8192</v>
+        <v>169926.99251</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1679919.11901</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>132699.81087</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-959607.769</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>31</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>